--- a/JS-Frameworks-Self-Evaluation-Protocol.xlsx
+++ b/JS-Frameworks-Self-Evaluation-Protocol.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filip\Pictures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filip\WebstormProjects\Social-Network-AngularJS-Practical-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9405"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Self-Evaluation-Protocol" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -663,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>18</v>
@@ -830,7 +830,9 @@
       <c r="B16" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="5">
         <v>10</v>
       </c>
@@ -1138,7 +1140,7 @@
       </c>
       <c r="C44" s="11">
         <f>SUM(C6:C43)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D44" s="11">
         <v>370</v>

--- a/JS-Frameworks-Self-Evaluation-Protocol.xlsx
+++ b/JS-Frameworks-Self-Evaluation-Protocol.xlsx
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>18</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="C44" s="11">
         <f>SUM(C6:C43)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D44" s="11">
         <v>370</v>
